--- a/Onderdelen.xlsx
+++ b/Onderdelen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PFree\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PFree\OneDrive\Documenten\SintLucas\Verdieping Software\8-Bit-Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ECD119-2EF7-4B17-82ED-F31B6291C0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABED287-E752-4EC3-A72F-6E630E8DC92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{7047BE83-AC16-410D-8C37-738AEF737A50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Breadboard</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>Mouser Electronics</t>
+  </si>
+  <si>
+    <t>Geleende onderdelen vanuit school</t>
+  </si>
+  <si>
+    <t>Bag LED's</t>
+  </si>
+  <si>
+    <t>Capacitor strips</t>
+  </si>
+  <si>
+    <t>Switches</t>
   </si>
 </sst>
 </file>
@@ -766,9 +778,6 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="44" fontId="7" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -931,9 +940,6 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="44" fontId="7" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -943,6 +949,43 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -961,30 +1004,6 @@
     <xf numFmtId="44" fontId="10" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1000,21 +1019,14 @@
     <xf numFmtId="44" fontId="12" fillId="6" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1361,11 +1373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84221D9-702E-49FB-9EDB-DDFC3575981B}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1383,57 +1395,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="74" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="47">
+      <c r="A2" s="46">
         <v>10</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="79" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="90" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="50">
+      <c r="A3" s="49">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1446,10 +1458,10 @@
       <c r="G3" s="15"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="77"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="50">
+      <c r="A4" s="49">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1462,10 +1474,10 @@
       <c r="G4" s="15"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="77"/>
+      <c r="J4" s="88"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="50">
+      <c r="A5" s="49">
         <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1478,10 +1490,10 @@
       <c r="G5" s="15"/>
       <c r="H5" s="11"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="77"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="50">
+      <c r="A6" s="49">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1494,10 +1506,10 @@
       <c r="G6" s="15"/>
       <c r="H6" s="11"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="77"/>
+      <c r="J6" s="88"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="50">
+      <c r="A7" s="49">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1510,28 +1522,28 @@
       <c r="G7" s="15"/>
       <c r="H7" s="11"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="77"/>
+      <c r="J7" s="88"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="50">
+      <c r="A8" s="49">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="3"/>
       <c r="E8" s="8"/>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
       <c r="H8" s="11"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="88" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="50">
+      <c r="A9" s="49">
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1544,10 +1556,10 @@
       <c r="G9" s="15"/>
       <c r="H9" s="11"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="77"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="50">
+      <c r="A10" s="49">
         <v>85</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1560,29 +1572,29 @@
       <c r="G10" s="15"/>
       <c r="H10" s="11"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="51">
+      <c r="A11" s="50">
         <v>18</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="78"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>4</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1604,15 +1616,15 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="80" t="s">
+      <c r="J12" s="91" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>3</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1634,13 +1646,13 @@
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="81"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>3</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1662,46 +1674,46 @@
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="81"/>
+      <c r="J14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="83">
+      <c r="A15" s="75">
         <v>5</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="78">
         <v>0.41</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="79">
         <v>0.5</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="80">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="G15" s="89">
+      <c r="G15" s="81">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="91" t="s">
+      <c r="H15" s="82"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>4</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1723,13 +1735,13 @@
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="81"/>
+      <c r="J16" s="92"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>3</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1751,13 +1763,13 @@
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="81"/>
+      <c r="J17" s="92"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>1</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1779,13 +1791,13 @@
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="81"/>
+      <c r="J18" s="92"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>2</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1811,13 +1823,13 @@
       <c r="I19" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J19" s="81"/>
+      <c r="J19" s="92"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>2</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1843,45 +1855,45 @@
       <c r="I20" s="2">
         <v>0.45</v>
       </c>
-      <c r="J20" s="81"/>
+      <c r="J20" s="92"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>4</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>0.62</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>0.75</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <f>(D21*A21)</f>
         <v>2.48</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="20">
         <v>0.7</v>
       </c>
-      <c r="J21" s="81"/>
+      <c r="J21" s="92"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <v>6</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1903,13 +1915,13 @@
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="81"/>
+      <c r="J22" s="92"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <v>3</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1931,304 +1943,337 @@
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="82"/>
+      <c r="J23" s="93"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <f>SUM(A12:A23)</f>
         <v>40</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34">
         <f>SUM(D12:D23)</f>
         <v>8.69</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="56">
         <f>SUM(E12:E23)</f>
         <v>10.5</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="70">
         <f>SUM(F12:F23)</f>
         <v>24.65</v>
       </c>
-      <c r="G24" s="72">
+      <c r="G24" s="71">
         <f>SUM(G12:G23)</f>
         <v>29.799999999999997</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="36"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37">
+      <c r="H24" s="61"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="36">
         <v>1</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="58">
+      <c r="D25" s="39"/>
+      <c r="E25" s="57">
         <v>2.86</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74">
-        <f t="shared" ref="G25:G35" si="4">(E25*A25)</f>
+      <c r="F25" s="72">
+        <f>(E25*A25)</f>
         <v>2.86</v>
       </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="93" t="s">
+      <c r="G25" s="62">
+        <f>F25*112/100</f>
+        <v>3.2031999999999998</v>
+      </c>
+      <c r="H25" s="62"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="96" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="41">
+    <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="40">
         <v>2</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="10">
         <v>0.627</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19">
-        <f t="shared" si="4"/>
+      <c r="F26" s="18">
+        <f>(E26*A26)</f>
         <v>1.254</v>
+      </c>
+      <c r="G26" s="62">
+        <f t="shared" ref="G26:G36" si="4">F26*112/100</f>
+        <v>1.4044800000000002</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="94"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="41">
+      <c r="J26" s="97"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="40">
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="10">
         <v>0.81699999999999995</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19">
+      <c r="F27" s="18">
+        <f>(E27*A27)</f>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="G27" s="62">
         <f t="shared" si="4"/>
-        <v>0.81699999999999995</v>
+        <v>0.91503999999999985</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="94"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="41">
+      <c r="J27" s="97"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="40">
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="10">
         <v>0.79800000000000004</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19">
+      <c r="F28" s="18">
+        <f>(E28*A28)</f>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="G28" s="62">
         <f t="shared" si="4"/>
-        <v>0.79800000000000004</v>
+        <v>0.89376</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="94"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="41">
+      <c r="J28" s="97"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="40">
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="10">
         <v>0.83599999999999997</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19">
+      <c r="F29" s="18">
+        <f>(E29*A29)</f>
+        <v>3.3439999999999999</v>
+      </c>
+      <c r="G29" s="62">
         <f t="shared" si="4"/>
-        <v>3.3439999999999999</v>
+        <v>3.7452799999999997</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="94"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="41">
+      <c r="J29" s="97"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="40">
         <v>2</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="10">
         <v>1.58</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19">
+      <c r="F30" s="18">
+        <f>(E30*A30)</f>
+        <v>3.16</v>
+      </c>
+      <c r="G30" s="62">
         <f t="shared" si="4"/>
-        <v>3.16</v>
+        <v>3.5392000000000001</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="94"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41">
+      <c r="J30" s="97"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="40">
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="10">
         <v>2.08</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19">
+      <c r="F31" s="18">
+        <f>(E31*A31)</f>
+        <v>16.64</v>
+      </c>
+      <c r="G31" s="62">
         <f t="shared" si="4"/>
-        <v>16.64</v>
-      </c>
-      <c r="H31" s="26" t="s">
+        <v>18.636800000000001</v>
+      </c>
+      <c r="H31" s="25" t="s">
         <v>47</v>
       </c>
       <c r="I31" s="7">
         <f>15.5/10</f>
         <v>1.55</v>
       </c>
-      <c r="J31" s="94"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="41">
+      <c r="J31" s="97"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="40">
         <v>1</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="10">
         <v>4.8899999999999997</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19">
+      <c r="F32" s="18">
+        <f>(E32*A32)</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G32" s="62">
         <f t="shared" si="4"/>
-        <v>4.8899999999999997</v>
+        <v>5.4767999999999999</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="94"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="41">
+      <c r="J32" s="97"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="40">
         <v>1</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="10">
         <v>1.08</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19">
+      <c r="F33" s="18">
+        <f>(E33*A33)</f>
+        <v>1.08</v>
+      </c>
+      <c r="G33" s="62">
         <f t="shared" si="4"/>
-        <v>1.08</v>
+        <v>1.2096</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="94"/>
+      <c r="J33" s="97"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="41">
+      <c r="A34" s="40">
         <v>2</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="10">
         <v>2.31</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19">
+      <c r="F34" s="18">
+        <f>(E34*A34)</f>
+        <v>4.62</v>
+      </c>
+      <c r="G34" s="62">
         <f t="shared" si="4"/>
-        <v>4.62</v>
+        <v>5.1744000000000003</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="94"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="97">
+      <c r="J34" s="97"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="84">
         <v>5</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98">
+      <c r="D35" s="85"/>
+      <c r="E35" s="85">
         <v>0.52300000000000002</v>
       </c>
-      <c r="F35" s="98"/>
-      <c r="G35" s="99">
-        <f t="shared" si="4"/>
+      <c r="F35" s="86">
+        <f>(E35*A35)</f>
         <v>2.6150000000000002</v>
       </c>
-      <c r="H35" s="97"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="101" t="s">
+      <c r="G35" s="85">
+        <f>F35*112/100</f>
+        <v>2.9287999999999998</v>
+      </c>
+      <c r="H35" s="84"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="41">
+      <c r="A36" s="40">
         <v>1</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2241,44 +2286,95 @@
       <c r="E36" s="10">
         <v>20</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19">
+      <c r="F36" s="18">
         <f>(E36*A36)</f>
         <v>20</v>
       </c>
+      <c r="G36" s="62">
+        <f t="shared" si="4"/>
+        <v>22.4</v>
+      </c>
       <c r="H36" s="13"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="95"/>
+      <c r="J36" s="98"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="33">
+      <c r="A37" s="32">
         <f>SUM(A25:A36)</f>
         <v>29</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="75">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="73">
         <f>SUM(D25:D34)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="75">
+      <c r="E37" s="73">
         <f>SUM(E25:E36)</f>
         <v>38.400999999999996</v>
       </c>
-      <c r="F37" s="75">
-        <f>G37*(100-21)/100</f>
-        <v>48.141019999999997</v>
-      </c>
-      <c r="G37" s="75">
-        <f>I31*10+SUM(G25:G30)+SUM(G32:G36)</f>
+      <c r="F37" s="73">
+        <f>I31*10+SUM(F25:F30)+SUM(F32:F36)</f>
         <v>60.938000000000002</v>
       </c>
-      <c r="H37" s="64"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="G37" s="73">
+        <f>SUM(G25:G36)</f>
+        <v>69.527360000000002</v>
+      </c>
+      <c r="H37" s="63"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="43"/>
+    </row>
+    <row r="38" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="100"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="J8:J11"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="J12:J23"/>
